--- a/1.2 Python study note(PC).xlsx
+++ b/1.2 Python study note(PC).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\Krishna Docs\Learning\Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Summery" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="519">
   <si>
     <t>Sr.</t>
   </si>
@@ -11245,9 +11245,6 @@
     <t>Sec</t>
   </si>
   <si>
-    <t>Use of API</t>
-  </si>
-  <si>
     <t>Use of Aziro</t>
   </si>
   <si>
@@ -11263,7 +11260,7 @@
     <t>Supply Chain Principles</t>
   </si>
   <si>
-    <t>Tensorflow/Kras/Pytorch (any one)</t>
+    <t>This is added</t>
   </si>
 </sst>
 </file>
@@ -16572,8 +16569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16840,39 +16837,34 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
-        <v>513</v>
-      </c>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="53" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
